--- a/StarData/12pcstars.xlsx
+++ b/StarData/12pcstars.xlsx
@@ -152,9 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +436,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,13 +530,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>15.255830250000001</v>
       </c>
     </row>
@@ -551,13 +552,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>14.45843238</v>
       </c>
     </row>
